--- a/packages/meditrak-server/src/tests/testData/surveys/importMultipleExistingSurveys.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveys/importMultipleExistingSurveys.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\importSurveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B611A0-528B-4054-8893-1AFD62254609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB4BE5-2A65-4165-AB10-B1F2AD97084A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Existing Survey Import" sheetId="2" r:id="rId1"/>
-    <sheet name="Test Existing Survey Import 2" sheetId="3" r:id="rId2"/>
+    <sheet name="test_existing_survey_import 1" sheetId="2" r:id="rId1"/>
+    <sheet name="test_existing_survey_import 2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>code</t>
   </si>
@@ -68,34 +68,19 @@
     <t>detailLabel</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Sodium chloride 0.9% isotonic injectable solution</t>
-  </si>
-  <si>
-    <t>Sodium lactate,compound solution</t>
-  </si>
-  <si>
-    <t>Calcium gluconate 100mg/mL in 10mL ampoule injection</t>
-  </si>
-  <si>
-    <t>TEST_53d544bf_test</t>
-  </si>
-  <si>
-    <t>TEST_53ea14bf_test</t>
-  </si>
-  <si>
-    <t>TEST_398ac4bf_test</t>
-  </si>
-  <si>
-    <t>TEST_53d544bzf_test</t>
-  </si>
-  <si>
-    <t>TEST_53ea14bfz_test</t>
-  </si>
-  <si>
-    <t>TEST_398ac4bfz_test</t>
+    <t>FreeText</t>
+  </si>
+  <si>
+    <t>fdfuu42a22321c123a8_test</t>
+  </si>
+  <si>
+    <t>Test question fdfuu42a22321c123a8_test</t>
+  </si>
+  <si>
+    <t>fdfzz42a66321c123a8_test</t>
+  </si>
+  <si>
+    <t>Test question fdfzz42a66321c123a8_test</t>
   </si>
 </sst>
 </file>
@@ -138,7 +123,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -516,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91190F5A-C39F-47E3-9B71-45A0A62043BA}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -571,16 +566,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -596,16 +591,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -620,18 +615,10 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -646,10 +633,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -657,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B2AAE7-3470-4597-8979-5D1D4C4200A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42FFE4E-1728-4EA0-B853-BCFC89AC8229}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -715,16 +702,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -740,16 +727,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -764,18 +751,10 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -789,12 +768,16 @@
       <c r="O4" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A4">
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A3">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/packages/meditrak-server/src/tests/testData/surveys/importMultipleExistingSurveys.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveys/importMultipleExistingSurveys.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB4BE5-2A65-4165-AB10-B1F2AD97084A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86809BAF-0E2C-4F60-B3A5-7323DD403EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_existing_survey_import 1" sheetId="2" r:id="rId1"/>
-    <sheet name="test_existing_survey_import 2" sheetId="4" r:id="rId2"/>
+    <sheet name="existing_survey_import_1_test" sheetId="2" r:id="rId1"/>
+    <sheet name="existing_survey_import_2_test" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91190F5A-C39F-47E3-9B71-45A0A62043BA}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42FFE4E-1728-4EA0-B853-BCFC89AC8229}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
